--- a/aggregate_prediction_output.xlsx
+++ b/aggregate_prediction_output.xlsx
@@ -430,142 +430,142 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>release_length_20</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_17</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_18</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_19</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_20</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_21</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_22</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_23</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_24</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_25</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_26</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_27</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>tot_bsb_catch</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_bsb</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_bsb</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_scup</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_scup</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_22</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_28</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_25</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
           <t>release_length_19</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_21</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_26</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_24</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_18</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>release_length_23</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_25</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_17</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_18</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_19</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_20</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_21</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_22</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_23</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_24</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_25</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_26</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_27</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_28</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>tot_bsb_catch</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep_bsb</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_bsb</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep_scup</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_scup</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_20</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_21</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_18</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_24</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_22</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_26</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
@@ -649,172 +649,172 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10885152.14552051</v>
+        <v>10617555.51170974</v>
       </c>
       <c r="C2">
-        <v>102334.4802806079</v>
+        <v>99864.35947055691</v>
       </c>
       <c r="D2">
-        <v>391405.0688450905</v>
+        <v>387032.1764788131</v>
       </c>
       <c r="E2">
-        <v>493646.8498280377</v>
+        <v>490730.7536996375</v>
       </c>
       <c r="F2">
-        <v>599290.6344871314</v>
+        <v>599524.044900975</v>
       </c>
       <c r="G2">
-        <v>1352781.091139333</v>
+        <v>1345125.737619812</v>
       </c>
       <c r="H2">
-        <v>2969130.251241772</v>
+        <v>2900679.674020991</v>
       </c>
       <c r="I2">
-        <v>2951702.158099603</v>
+        <v>2906161.095691245</v>
       </c>
       <c r="J2">
-        <v>2872694.686705667</v>
+        <v>2770107.652687592</v>
       </c>
       <c r="K2">
-        <v>2999208.155537033</v>
+        <v>2923150.182220478</v>
       </c>
       <c r="L2">
-        <v>2686263.753946575</v>
+        <v>2601032.506843581</v>
       </c>
       <c r="M2">
-        <v>2027775.838788916</v>
+        <v>1950428.255544743</v>
       </c>
       <c r="N2">
-        <v>1513553.19623754</v>
+        <v>1460374.934191984</v>
       </c>
       <c r="O2">
-        <v>12984.41152760997</v>
+        <v>13595.21367085657</v>
       </c>
       <c r="P2">
-        <v>4616.814214313925</v>
+        <v>99443.88673869558</v>
       </c>
       <c r="Q2">
-        <v>3124.757657993989</v>
+        <v>425672.6296398242</v>
       </c>
       <c r="R2">
-        <v>96483.40617864949</v>
+        <v>424744.4423587757</v>
       </c>
       <c r="S2">
-        <v>443988.7521330759</v>
+        <v>325589.8514302414</v>
       </c>
       <c r="T2">
-        <v>417900.9894723751</v>
+        <v>205701.4439433967</v>
       </c>
       <c r="U2">
-        <v>338532.3869123274</v>
+        <v>123298.5624925803</v>
       </c>
       <c r="V2">
-        <v>202384.9252392417</v>
+        <v>85405.05135635736</v>
       </c>
       <c r="W2">
-        <v>124204.0385370551</v>
+        <v>107440.85600304</v>
       </c>
       <c r="X2">
-        <v>92475.72015410138</v>
+        <v>49000.31504090584</v>
       </c>
       <c r="Y2">
-        <v>109928.6296574428</v>
+        <v>30626.3226099538</v>
       </c>
       <c r="Z2">
-        <v>52105.46882230463</v>
+        <v>23090.44902058541</v>
       </c>
       <c r="AA2">
-        <v>29240.29144563741</v>
+        <v>1907241.105807538</v>
       </c>
       <c r="AB2">
-        <v>24582.65821992142</v>
+        <v>20722255.52100998</v>
       </c>
       <c r="AC2">
-        <v>1692.04488699826</v>
+        <v>2213441.403335217</v>
       </c>
       <c r="AD2">
-        <v>1940165.656797942</v>
+        <v>1000599.179630663</v>
       </c>
       <c r="AE2">
-        <v>21253856.82006605</v>
+        <v>8052861.726775036</v>
       </c>
       <c r="AF2">
-        <v>2107016.240019525</v>
+        <v>1754296.293938517</v>
       </c>
       <c r="AG2">
-        <v>1041566.497398833</v>
+        <v>2109968.684518341</v>
       </c>
       <c r="AH2">
-        <v>8185649.469034568</v>
+        <v>6051.933957675849</v>
       </c>
       <c r="AI2">
-        <v>1814302.593281256</v>
+        <v>1714.924851542212</v>
       </c>
       <c r="AJ2">
-        <v>2145328.914490009</v>
+        <v>2466.816709428783</v>
       </c>
       <c r="AK2">
-        <v>13060.90774031112</v>
+        <v>13167.52772052518</v>
       </c>
       <c r="AL2">
-        <v>8893.371195556234</v>
+        <v>9533.855106562434</v>
       </c>
       <c r="AM2">
-        <v>239125.9319707509</v>
+        <v>1244.233834528263</v>
       </c>
       <c r="AN2">
-        <v>4187.420805059872</v>
+        <v>3762.545381545644</v>
       </c>
       <c r="AO2">
-        <v>5372.795566141474</v>
+        <v>231045.5049244784</v>
       </c>
       <c r="AP2">
-        <v>1220.078107706783</v>
+        <v>4887.718893568159</v>
       </c>
       <c r="AQ2">
-        <v>1370.553510745545</v>
+        <v>1849.096646097073</v>
       </c>
       <c r="AR2">
-        <v>76.83657837426266</v>
+        <v>170.2390443790428</v>
       </c>
       <c r="AS2">
-        <v>34589248.03552726</v>
+        <v>30894398.01744408</v>
       </c>
       <c r="AT2">
-        <v>10885152.14552051</v>
+        <v>10617555.51170974</v>
       </c>
       <c r="AU2">
-        <v>11023660.44015298</v>
+        <v>10755535.90650862</v>
       </c>
       <c r="AV2">
-        <v>45513969</v>
+        <v>45553002</v>
       </c>
       <c r="AW2">
         <v>123</v>
       </c>
       <c r="AX2">
-        <v>36.77605417537635</v>
+        <v>269.4617499267711</v>
       </c>
       <c r="AY2">
-        <v>39927.77993315198</v>
+        <v>40950.55832805867</v>
       </c>
       <c r="AZ2">
-        <v>212070.2799732215</v>
+        <v>198537.3062984308</v>
       </c>
       <c r="BA2">
-        <v>4373.999202533676</v>
+        <v>3246.002012022251</v>
       </c>
       <c r="BB2">
-        <v>346.9731115874889</v>
+        <v>320.6646183301098</v>
       </c>
       <c r="BC2">
-        <v>109743.6205049555</v>
+        <v>110294.9654225913</v>
       </c>
       <c r="BD2">
-        <v>1267.512921570342</v>
+        <v>1267.64920505705</v>
       </c>
       <c r="BE2">
-        <v>1004.833014707086</v>
+        <v>998.7191045602154</v>
       </c>
     </row>
   </sheetData>
